--- a/ValveDriver_BOM.xlsx
+++ b/ValveDriver_BOM.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15220" tabRatio="500"/>
+    <workbookView xWindow="52900" yWindow="5020" windowWidth="25360" windowHeight="15220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ValveDriver_BOM.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Part</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t xml:space="preserve"> S7012-ND</t>
+  </si>
+  <si>
+    <t>WM7864-ND</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -626,6 +629,9 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
@@ -729,6 +735,9 @@
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6">
